--- a/Config/config.xlsx
+++ b/Config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/dushyanth_alla_gds_ey_com/Documents/Documents/UiPath/FACT_OutputGenerator/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_F25DC773A252ABDACC104817B1DA79145ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A8BFC6-7521-45E0-B794-315B5C380841}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC104817B1DA79145ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80EAEFEC-BCD6-4444-8E17-0A9F0E34E011}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appian - DEMO" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -77,13 +77,25 @@
   </si>
   <si>
     <t>Data Source={hostname};Initial Catalog=FACT;Integrated Security=True;Encrypt=False</t>
+  </si>
+  <si>
+    <t>https://eycommercial.appiancloud.com/suite/webapi/getRequestParam?</t>
+  </si>
+  <si>
+    <t>https://eycommercial1.appiancloud.com/suite/webapi/getRequestParam?</t>
+  </si>
+  <si>
+    <t>Endpoint_GetReqParm_DEMO</t>
+  </si>
+  <si>
+    <t>Endpoint_GetReqParm_DEV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +119,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +138,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -150,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -167,6 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31D778B-EDAB-4CF7-BB40-F04DE614D73D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,14 +520,22 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -511,17 +545,18 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{36548D5C-A931-43EA-ADE0-83AFA9F2246D}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{A5025ED0-83C9-47FC-84FB-0A8082B70AC4}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{75DEB1CE-689A-49C9-8E8F-67771557CCDE}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{99E3A5B4-817D-4B4F-B430-7BF33BFC0CFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -565,14 +600,22 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -582,8 +625,9 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{C2BAEEB1-FC1E-4446-9F45-31BEC112EA3C}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{E491513D-0248-40A9-9897-CA0EE0F983F9}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{015F64B7-C9CE-4EDE-B705-8EAE34BC72A5}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{DE44B545-06B3-462D-9E20-020EC3B46BC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>